--- a/Modèle-audit-SEO.xlsx
+++ b/Modèle-audit-SEO.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="27">
   <si>
     <t>Catégorie</t>
   </si>
@@ -39,14 +39,74 @@
     <t>Référence</t>
   </si>
   <si>
-    <t>(SEO ou accessiblité ?)</t>
+    <t>Balises description et title</t>
+  </si>
+  <si>
+    <t>Balises non compléte</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Texte coohérent et propre</t>
+  </si>
+  <si>
+    <t>Liens inutiles footer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Liens </t>
+  </si>
+  <si>
+    <t>Liens externe coohérent et propre</t>
+  </si>
+  <si>
+    <t>MAJ biblio</t>
+  </si>
+  <si>
+    <t>SEO</t>
+  </si>
+  <si>
+    <t>Accessibility</t>
+  </si>
+  <si>
+    <t>Best pratice</t>
+  </si>
+  <si>
+    <t>Probleme securité et performance</t>
+  </si>
+  <si>
+    <t>Texte dans img</t>
+  </si>
+  <si>
+    <t>Les textes dans les images ne sont pas identifiers par google bots</t>
+  </si>
+  <si>
+    <t>Mise en page du texte dans des balises</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Balise lang </t>
+  </si>
+  <si>
+    <t>Aucune langue préciser</t>
+  </si>
+  <si>
+    <t>Ajout du "fr" dans la balise lang</t>
+  </si>
+  <si>
+    <t>Couleur contrast</t>
+  </si>
+  <si>
+    <t>Les contrast ne sont pas correct pour une visibilité parfaite</t>
+  </si>
+  <si>
+    <t>Demande au graphiste de modifier ca</t>
+  </si>
+  <si>
+    <t>Refonte du site</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -72,6 +132,12 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -107,14 +173,27 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -325,7 +404,7 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.21875" defaultRowHeight="15" customHeight="1"/>
@@ -338,117 +417,236 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
-      <c r="U1" s="2"/>
-      <c r="V1" s="2"/>
-      <c r="W1" s="2"/>
-      <c r="X1" s="2"/>
-      <c r="Y1" s="2"/>
-      <c r="Z1" s="2"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+      <c r="W1" s="1"/>
+      <c r="X1" s="1"/>
+      <c r="Y1" s="1"/>
+      <c r="Z1" s="1"/>
     </row>
-    <row r="2" spans="1:26" ht="15.75" customHeight="1">
+    <row r="2" spans="1:26" ht="15.75">
       <c r="A2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="4" t="b">
+      <c r="C2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="5" t="b">
         <v>0</v>
       </c>
+      <c r="F2" s="6"/>
     </row>
-    <row r="3" spans="1:26" ht="15.75" customHeight="1">
-      <c r="E3" s="4" t="b">
+    <row r="3" spans="1:26" ht="30">
+      <c r="A3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="5" t="b">
         <v>0</v>
       </c>
+      <c r="F3" s="6"/>
     </row>
-    <row r="4" spans="1:26" ht="15.75" customHeight="1">
-      <c r="E4" s="4" t="b">
+    <row r="4" spans="1:26" ht="45">
+      <c r="A4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="5" t="b">
         <v>0</v>
       </c>
+      <c r="F4" s="6"/>
     </row>
-    <row r="5" spans="1:26" ht="15.75" customHeight="1">
-      <c r="E5" s="4" t="b">
+    <row r="5" spans="1:26" ht="30">
+      <c r="A5" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="5" t="b">
         <v>0</v>
       </c>
+      <c r="F5" s="6"/>
     </row>
-    <row r="6" spans="1:26" ht="15.75" customHeight="1">
-      <c r="E6" s="4" t="b">
+    <row r="6" spans="1:26" ht="15.75">
+      <c r="A6" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="5" t="b">
         <v>0</v>
       </c>
+      <c r="F6" s="6"/>
     </row>
-    <row r="7" spans="1:26" ht="15.75" customHeight="1">
-      <c r="E7" s="4" t="b">
+    <row r="7" spans="1:26" ht="15.75">
+      <c r="A7" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="5" t="b">
         <v>0</v>
       </c>
+      <c r="F7" s="6"/>
     </row>
-    <row r="8" spans="1:26" ht="15.75" customHeight="1">
-      <c r="E8" s="4" t="b">
+    <row r="8" spans="1:26" ht="15.75">
+      <c r="A8" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="5" t="b">
         <v>0</v>
       </c>
+      <c r="F8" s="6"/>
     </row>
-    <row r="9" spans="1:26" ht="15.75" customHeight="1">
-      <c r="E9" s="4" t="b">
+    <row r="9" spans="1:26" ht="15.75">
+      <c r="A9" s="6"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="5" t="b">
         <v>0</v>
       </c>
+      <c r="F9" s="6"/>
     </row>
-    <row r="10" spans="1:26" ht="15.75" customHeight="1">
-      <c r="E10" s="4" t="b">
+    <row r="10" spans="1:26" ht="15.75">
+      <c r="A10" s="6"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="5" t="b">
         <v>0</v>
       </c>
+      <c r="F10" s="6"/>
     </row>
-    <row r="11" spans="1:26" ht="15.75" customHeight="1">
-      <c r="E11" s="4" t="b">
+    <row r="11" spans="1:26" ht="30">
+      <c r="A11" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" s="5" t="b">
         <v>0</v>
       </c>
+      <c r="F11" s="6"/>
     </row>
-    <row r="12" spans="1:26" ht="15.75" customHeight="1">
-      <c r="E12" s="4" t="b">
+    <row r="12" spans="1:26" ht="45">
+      <c r="A12" s="6"/>
+      <c r="B12" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" s="5" t="b">
         <v>0</v>
       </c>
+      <c r="F12" s="6"/>
     </row>
-    <row r="13" spans="1:26" ht="15.75" customHeight="1">
-      <c r="E13" s="4" t="b">
+    <row r="13" spans="1:26" ht="15.75">
+      <c r="A13" s="6"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="5" t="b">
         <v>0</v>
       </c>
+      <c r="F13" s="6"/>
     </row>
-    <row r="14" spans="1:26" ht="15.75" customHeight="1">
-      <c r="E14" s="4" t="b">
+    <row r="14" spans="1:26" ht="15.75">
+      <c r="A14" s="6"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="5" t="b">
         <v>0</v>
       </c>
+      <c r="F14" s="6"/>
     </row>
-    <row r="15" spans="1:26" ht="15.75" customHeight="1">
-      <c r="E15" s="4" t="b">
+    <row r="15" spans="1:26" ht="15.75">
+      <c r="A15" s="6"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="5" t="b">
         <v>0</v>
       </c>
+      <c r="F15" s="6"/>
     </row>
     <row r="16" spans="1:26" ht="15.75" customHeight="1"/>
     <row r="17" ht="15.75" customHeight="1"/>
@@ -1437,6 +1635,6 @@
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="landscape"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Modèle-audit-SEO.xlsx
+++ b/Modèle-audit-SEO.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="37">
   <si>
     <t>Catégorie</t>
   </si>
@@ -45,9 +45,6 @@
     <t>Balises non compléte</t>
   </si>
   <si>
-    <t xml:space="preserve"> Texte coohérent et propre</t>
-  </si>
-  <si>
     <t>Liens inutiles footer</t>
   </si>
   <si>
@@ -100,6 +97,39 @@
   </si>
   <si>
     <t>Refonte du site</t>
+  </si>
+  <si>
+    <t>Performance</t>
+  </si>
+  <si>
+    <t>Tailles images</t>
+  </si>
+  <si>
+    <t>Images trop lourdes et grandes</t>
+  </si>
+  <si>
+    <t>Resize des images et optimisation du poid</t>
+  </si>
+  <si>
+    <t>Alt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alt sur les images incorrectes </t>
+  </si>
+  <si>
+    <t>Réécriture des alt</t>
+  </si>
+  <si>
+    <t>width et height</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Largeur et hauteur des images non precisé </t>
+  </si>
+  <si>
+    <t>ajout width et height sur les balises img</t>
+  </si>
+  <si>
+    <t>Texte coohérent et propre</t>
   </si>
 </sst>
 </file>
@@ -404,7 +434,7 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.21875" defaultRowHeight="15" customHeight="1"/>
@@ -458,7 +488,7 @@
     </row>
     <row r="2" spans="1:26" ht="15.75">
       <c r="A2" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>6</v>
@@ -467,7 +497,7 @@
         <v>7</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="E2" s="5" t="b">
         <v>0</v>
@@ -476,16 +506,16 @@
     </row>
     <row r="3" spans="1:26" ht="30">
       <c r="A3" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>10</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>11</v>
       </c>
       <c r="E3" s="5" t="b">
         <v>0</v>
@@ -494,16 +524,16 @@
     </row>
     <row r="4" spans="1:26" ht="45">
       <c r="A4" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="D4" s="4" t="s">
         <v>18</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>19</v>
       </c>
       <c r="E4" s="5" t="b">
         <v>0</v>
@@ -512,41 +542,49 @@
     </row>
     <row r="5" spans="1:26" ht="30">
       <c r="A5" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="D5" s="4" t="s">
         <v>21</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>22</v>
       </c>
       <c r="E5" s="5" t="b">
         <v>0</v>
       </c>
       <c r="F5" s="6"/>
     </row>
-    <row r="6" spans="1:26" ht="15.75">
+    <row r="6" spans="1:26" ht="30">
       <c r="A6" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="F6" s="6"/>
+        <v>13</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="7" spans="1:26" ht="15.75">
+    <row r="7" spans="1:26" ht="30">
       <c r="A7" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
+        <v>13</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="E7" s="5" t="b">
         <v>0</v>
       </c>
@@ -554,7 +592,7 @@
     </row>
     <row r="8" spans="1:26" ht="15.75">
       <c r="A8" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
@@ -574,11 +612,19 @@
       </c>
       <c r="F9" s="6"/>
     </row>
-    <row r="10" spans="1:26" ht="15.75">
-      <c r="A10" s="6"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
+    <row r="10" spans="1:26" ht="30">
+      <c r="A10" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>29</v>
+      </c>
       <c r="E10" s="5" t="b">
         <v>0</v>
       </c>
@@ -586,16 +632,16 @@
     </row>
     <row r="11" spans="1:26" ht="30">
       <c r="A11" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>16</v>
-      </c>
       <c r="D11" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E11" s="5" t="b">
         <v>0</v>
@@ -603,15 +649,17 @@
       <c r="F11" s="6"/>
     </row>
     <row r="12" spans="1:26" ht="45">
-      <c r="A12" s="6"/>
+      <c r="A12" s="4" t="s">
+        <v>13</v>
+      </c>
       <c r="B12" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="D12" s="4" t="s">
         <v>24</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>25</v>
       </c>
       <c r="E12" s="5" t="b">
         <v>0</v>

--- a/Modèle-audit-SEO.xlsx
+++ b/Modèle-audit-SEO.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="43">
   <si>
     <t>Catégorie</t>
   </si>
@@ -130,6 +130,24 @@
   </si>
   <si>
     <t>Texte coohérent et propre</t>
+  </si>
+  <si>
+    <t>Aria label</t>
+  </si>
+  <si>
+    <t>Lien extérieur non identifier</t>
+  </si>
+  <si>
+    <t>ajout de la classe "aria-label" pour identifier les liens sortant "reseaux sociaux"</t>
+  </si>
+  <si>
+    <t>Meta name Keywords</t>
+  </si>
+  <si>
+    <t>Répétition des mots clés abusives</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Faire un brainstorming avec l'équipe pour trouver des mots clés pertinents </t>
   </si>
 </sst>
 </file>
@@ -203,7 +221,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -222,6 +240,9 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -433,8 +454,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.21875" defaultRowHeight="15" customHeight="1"/>
@@ -590,23 +611,37 @@
       </c>
       <c r="F7" s="6"/>
     </row>
-    <row r="8" spans="1:26" ht="15.75">
+    <row r="8" spans="1:26" ht="60">
       <c r="A8" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
+      <c r="B8" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="E8" s="5" t="b">
         <v>0</v>
       </c>
       <c r="F8" s="6"/>
     </row>
-    <row r="9" spans="1:26" ht="15.75">
-      <c r="A9" s="6"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
+    <row r="9" spans="1:26" ht="45">
+      <c r="A9" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>42</v>
+      </c>
       <c r="E9" s="5" t="b">
         <v>0</v>
       </c>
